--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Basic\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\Poprawy 2026\BASIC_AGR\Basic_AGR\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF35612-C6A3-44CD-96F4-C6CC430DE8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33A2A8-14D6-41C1-BC0D-79DC2DCE89C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_ELC" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>~FI_T</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Sets</t>
   </si>
   <si>
-    <t>EFF</t>
-  </si>
-  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>ENV_ACT</t>
   </si>
   <si>
-    <t>Peak</t>
-  </si>
-  <si>
     <t>*Technology Name</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>Activity Emission Coefficient</t>
   </si>
   <si>
-    <t>% contribution to PEAK</t>
-  </si>
-  <si>
     <t>*Process Set Membership</t>
   </si>
   <si>
@@ -290,27 +281,12 @@
     <t>*Units</t>
   </si>
   <si>
-    <t>M€/GW</t>
-  </si>
-  <si>
-    <t>M€/PJa</t>
-  </si>
-  <si>
-    <t>M€/PJ</t>
-  </si>
-  <si>
     <t>Years</t>
   </si>
   <si>
     <t>(Act Unit/Cap Unit)</t>
   </si>
   <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>Power Plants Existing00 - Natural Gas</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -320,10 +296,85 @@
     <t>Lifetime</t>
   </si>
   <si>
-    <t>NEW_OCGT</t>
-  </si>
-  <si>
-    <t>GAS</t>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>AGR_NEW_BIOCH4</t>
+  </si>
+  <si>
+    <t>AGR_NEW_BIOG</t>
+  </si>
+  <si>
+    <t>Biomethane plant</t>
+  </si>
+  <si>
+    <t>Biogas plant</t>
+  </si>
+  <si>
+    <t>mln m3</t>
+  </si>
+  <si>
+    <t>mln m3 / rok</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_WHEAT</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_BARLEY</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_MAIZE</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_CER-MIX</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_TRITICALE</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_OATS</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_RYE</t>
+  </si>
+  <si>
+    <t>AGR_RESID_CROP_MILL-BUCK</t>
+  </si>
+  <si>
+    <t>AGR_LIV_MANURE_CAT_DAIRY</t>
+  </si>
+  <si>
+    <t>AGR_LIV_MANURE_CAT_NON-DAIRY</t>
+  </si>
+  <si>
+    <t>AGR_LIV_MANURE_SWINE</t>
+  </si>
+  <si>
+    <t>AGR_LIV_MANURE_POULTRY</t>
+  </si>
+  <si>
+    <t>PRI_BIO_CH4_AGR</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>ACTFLO</t>
+  </si>
+  <si>
+    <t>PJ/mln m3</t>
+  </si>
+  <si>
+    <t>FLO_COST</t>
+  </si>
+  <si>
+    <t>PLN /m3</t>
+  </si>
+  <si>
+    <t>PRI_BIOG_AGR</t>
+  </si>
+  <si>
+    <t>MPLN / mln m3  / year</t>
   </si>
 </sst>
 </file>
@@ -451,7 +502,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,8 +537,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -530,13 +587,75 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -556,8 +675,9 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -574,9 +694,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -598,12 +715,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -612,8 +723,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,15 +742,39 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+  <cellStyles count="20">
+    <cellStyle name="20% — akcent 5" xfId="1" builtinId="46"/>
+    <cellStyle name="Akcent 2" xfId="2" builtinId="33"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dobry" xfId="4" builtinId="26"/>
+    <cellStyle name="Normal - Style1 2 2 3 2" xfId="19" xr:uid="{8725D294-FE0B-4682-8676-F2472F99A61F}"/>
     <cellStyle name="Normal 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -649,6 +782,7 @@
     <cellStyle name="Normal 8" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal 9 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normale_B2020" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Percent 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Percent 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -668,339 +802,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5212E8E-2E38-4B79-84A5-69A8C0DF7ADB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="4377267"/>
-          <a:ext cx="7439025" cy="1420283"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Define each "new"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>power plants (FI_Process table).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Declare technology</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> attributes (FI_T) such as INVCOST. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Existing technologies are defined in the base-year template while new fuel technologies are</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> defined here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Duplicate definition should be avoided. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vintaging ELCTNGAS00 in the FI_PROCESS setting YES cellW15 and then specifing data by year in table FI_T (column Year. In this example EFF is vintaged for periods 2006 to 2020.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35FC1B6-6537-42FB-B1D1-7EF969E37D24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1304925" y="6200775"/>
-          <a:ext cx="7429500" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The ELCTNOIL00 can be installed from the base year to cover</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> the additional capacity needed for the reserve equation (5%)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,7 +942,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1179,7 +980,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1251,7 +1052,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1426,469 +1227,1250 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="9" style="21" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="7" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="9" style="18" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="7" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="2" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.33203125" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="S4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q5" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="32" t="s">
+      <c r="U5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="31" t="s">
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="S6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="Q6" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="33" t="s">
+      <c r="X6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="33" t="s">
+      <c r="Y6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="33" t="s">
+      <c r="AA6" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="Q7" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="I7" s="8"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="Q10" s="29" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="S10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="24"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="X11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA11" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="L12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="16" t="s">
+      <c r="P12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="16" t="s">
+      <c r="T12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="16" t="s">
+      <c r="Z12" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="AA12" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y12" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="S13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="32"/>
+      <c r="U13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="X13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41">
+        <v>1</v>
+      </c>
+      <c r="J14" s="40">
+        <v>11.272831050228312</v>
+      </c>
+      <c r="K14" s="49">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <v>1.48125</v>
+      </c>
+      <c r="M14" s="41">
+        <v>25</v>
+      </c>
+      <c r="N14" s="50"/>
+      <c r="O14" s="41">
+        <v>1</v>
+      </c>
+      <c r="P14" s="51"/>
+      <c r="S14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T14" s="34"/>
+      <c r="U14" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="X14" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="37">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="45">
+        <v>0.20329794443189519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="37">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="45">
+        <v>0.20329794443189519</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="37">
+        <v>0.19190000000000002</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="45">
+        <v>0.23449713392391869</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="37">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="45">
+        <v>0.20329794443189519</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="37">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="45">
+        <v>0.20329794443189519</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="37">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="45">
+        <v>0.20329794443189519</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="37">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="45">
+        <v>0.20329794443189519</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="37">
+        <v>0.22134999999999999</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="45">
+        <v>0.20329794443189519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="37">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="45">
+        <v>1.0617059891107077</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="37">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="45">
+        <v>1.0617059891107077</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="37">
+        <v>7.6E-3</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="45">
+        <v>7.6973684210526319</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="37">
+        <v>4.9399999999999993E-2</v>
+      </c>
+      <c r="H26" s="37">
+        <v>3.95E-2</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="45">
+        <v>1.1842105263157896</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O31" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="P31" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="18" t="s">
+      <c r="N32" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" s="15"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="18"/>
-      <c r="Q13" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="36" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40">
+        <v>2000</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40">
+        <v>1</v>
+      </c>
+      <c r="J34" s="40">
+        <v>5.2511415525114149</v>
+      </c>
+      <c r="K34" s="40">
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="M34" s="40">
+        <v>25</v>
+      </c>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41">
+        <v>1</v>
+      </c>
+      <c r="P34" s="42"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="43"/>
+      <c r="C35" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="45">
+        <v>0.14024190912062767</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+      <c r="C36" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="T13" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="str">
-        <f>S13</f>
-        <v>NEW_OCGT</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="45">
+        <v>0.14024190912062767</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="43"/>
+      <c r="C37" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="21">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="21">
-        <v>10</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="21">
-        <v>1</v>
-      </c>
-      <c r="O14" s="25">
-        <v>1</v>
-      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44">
+        <v>0.38855000000000001</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="45">
+        <v>0.11041050057907605</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
+      <c r="C38" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="45">
+        <v>0.14024190912062767</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="43"/>
+      <c r="C39" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="45">
+        <v>0.14024190912062767</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="43"/>
+      <c r="C40" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="45">
+        <v>0.14024190912062767</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="43"/>
+      <c r="C41" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="45">
+        <v>0.14024190912062767</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="43"/>
+      <c r="C42" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="45">
+        <v>0.14024190912062767</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="43"/>
+      <c r="C43" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44">
+        <v>9.7849999999999993E-2</v>
+      </c>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="45">
+        <v>0.56995401124169653</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="43"/>
+      <c r="C44" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44">
+        <v>9.7849999999999993E-2</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="45">
+        <v>0.56995401124169653</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="43"/>
+      <c r="C45" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44">
+        <v>1.1875E-2</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="45">
+        <v>4.6964210526315791</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="43"/>
+      <c r="C46" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44">
+        <v>8.8349999999999998E-2</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="45">
+        <v>0.63123938879456709</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2088,15 +2670,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
@@ -2107,14 +2680,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC1F11E-0DCF-416B-8487-DBDB1003184D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC1F11E-0DCF-416B-8487-DBDB1003184D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
+    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B140F9D-34E6-48A4-B2AC-8BFCDECC6FB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04ADC56F-6F99-416D-857C-9326ECC3E5CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
+    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04ADC56F-6F99-416D-857C-9326ECC3E5CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B140F9D-34E6-48A4-B2AC-8BFCDECC6FB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>